--- a/土日PJ BCOタイムライン.xlsx
+++ b/土日PJ BCOタイムライン.xlsx
@@ -197,7 +197,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>土日プロジェクト BCOタイムライン1</t>
+    <t>土日プロジェクト BCOタイムライン</t>
     <rPh sb="0" eb="2">
       <t>ドニチ</t>
     </rPh>
@@ -4563,7 +4563,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{5CF16D30-8160-4B5F-ADF0-9299207809E6}</c15:txfldGUID>
+                      <c15:txfldGUID>{3A4314BF-C81D-4A3C-A7B6-D71640745178}</c15:txfldGUID>
                       <c15:f>計算!$E$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -4603,7 +4603,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{3010A5AE-5E69-457A-8A9C-CA5D5D63D4CE}</c15:txfldGUID>
+                      <c15:txfldGUID>{14919EE1-22CC-4FD0-AB61-3E851FC5E201}</c15:txfldGUID>
                       <c15:f>計算!$F$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -4643,7 +4643,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{FB22C96A-11E9-4A34-9E55-7B85087B7D56}</c15:txfldGUID>
+                      <c15:txfldGUID>{114CD610-DFE0-4C3E-8DE6-1874C76CDADD}</c15:txfldGUID>
                       <c15:f>計算!$G$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -4683,7 +4683,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{E46CCD53-E6B3-432A-B406-8F62608088AD}</c15:txfldGUID>
+                      <c15:txfldGUID>{305E15B1-D8AE-48E0-8EF4-C37ECCB5E4AC}</c15:txfldGUID>
                       <c15:f>計算!$H$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -4723,7 +4723,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{55697CD3-9760-4152-9DCC-4DC25A0E7B38}</c15:txfldGUID>
+                      <c15:txfldGUID>{69850612-2373-4F41-B8F2-4DB65002560F}</c15:txfldGUID>
                       <c15:f>計算!$I$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -4763,7 +4763,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{5B6CA504-94AA-4594-B438-EA71A1CF1B9D}</c15:txfldGUID>
+                      <c15:txfldGUID>{2BF8ACB1-4CD2-4D3C-879B-B69393EE6A21}</c15:txfldGUID>
                       <c15:f>計算!$J$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -4803,7 +4803,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{209CB07F-4576-44D0-8BB7-C439FCEF3AEE}</c15:txfldGUID>
+                      <c15:txfldGUID>{74B4CF25-FBF5-49F0-AF52-8DF5011DD969}</c15:txfldGUID>
                       <c15:f>計算!$K$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -4843,7 +4843,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{11D674AE-3F4C-4BF0-BC19-12D65C43DCB4}</c15:txfldGUID>
+                      <c15:txfldGUID>{C63266C4-1B9F-4540-9A5E-EAD0369B2F49}</c15:txfldGUID>
                       <c15:f>計算!$L$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -4883,7 +4883,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{E6BD8D52-A95D-4791-A7E0-51D564FD364F}</c15:txfldGUID>
+                      <c15:txfldGUID>{D7E04C8D-A24E-43E9-ACEF-3110EF26E79A}</c15:txfldGUID>
                       <c15:f>計算!$M$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -4923,7 +4923,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{884D2AEF-5615-459A-A2C6-C1E2FF57031B}</c15:txfldGUID>
+                      <c15:txfldGUID>{71BB0C01-E125-49EB-905D-2155CB953001}</c15:txfldGUID>
                       <c15:f>計算!$N$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -4963,7 +4963,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{DAF78D36-2E84-41AA-9EDB-FCD49C3DEDB2}</c15:txfldGUID>
+                      <c15:txfldGUID>{5BE1DE96-7C24-4BB8-BBFC-9164E8E16979}</c15:txfldGUID>
                       <c15:f>計算!$O$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -5003,7 +5003,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{218CB4E5-BA38-4AE2-A306-45D2DF0C2199}</c15:txfldGUID>
+                      <c15:txfldGUID>{EF8769F3-710C-40AB-9058-2C50D3AD40EB}</c15:txfldGUID>
                       <c15:f>計算!$P$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -5043,7 +5043,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{A8ED73E2-7698-4E3F-928B-B8A7445CFFEC}</c15:txfldGUID>
+                      <c15:txfldGUID>{47C6211A-AB8C-4919-8DD5-57A4293D07B0}</c15:txfldGUID>
                       <c15:f>計算!$Q$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -5083,7 +5083,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{31674BD5-0850-4DC2-9A34-BD1A5C466075}</c15:txfldGUID>
+                      <c15:txfldGUID>{E0D2E2CE-B8F8-47C0-8FC0-916D351F021B}</c15:txfldGUID>
                       <c15:f>計算!$R$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -5123,7 +5123,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{0C750247-C798-48D8-A75A-57C4A7DAE962}</c15:txfldGUID>
+                      <c15:txfldGUID>{C1E2C884-6492-4284-912F-A32743CC9FD8}</c15:txfldGUID>
                       <c15:f>計算!$S$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -5163,7 +5163,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{4CD40401-C4C5-4AE8-BD60-6799E0D743BE}</c15:txfldGUID>
+                      <c15:txfldGUID>{4188C17D-3EDD-4342-824D-8C6073142A93}</c15:txfldGUID>
                       <c15:f>計算!$T$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -5203,7 +5203,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{6F51A33B-CB07-4FF5-9FC7-B28B3B75A6CB}</c15:txfldGUID>
+                      <c15:txfldGUID>{9FD59AB8-EA42-4EE1-A2D2-004FA9AEBE64}</c15:txfldGUID>
                       <c15:f>計算!$U$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -5243,7 +5243,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{5A0DBC22-70C7-4D01-A316-F6024918AF03}</c15:txfldGUID>
+                      <c15:txfldGUID>{F32217A1-1E12-47FE-B06E-943C8F0B15B2}</c15:txfldGUID>
                       <c15:f>計算!$V$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -5283,7 +5283,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{E3FB4C8F-9008-431A-9666-9D5DC6980C19}</c15:txfldGUID>
+                      <c15:txfldGUID>{36CB8E9B-15B8-43F0-8EEA-BD12F01C40B4}</c15:txfldGUID>
                       <c15:f>計算!$W$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -5323,7 +5323,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{9062E5E7-8954-4082-A00F-15085D990E60}</c15:txfldGUID>
+                      <c15:txfldGUID>{C94B1C11-1CD3-44D5-9DBA-18A39E307D7B}</c15:txfldGUID>
                       <c15:f>計算!$X$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -5363,7 +5363,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{44BA7ECE-D986-4706-8274-5BEAC0E5DDBC}</c15:txfldGUID>
+                      <c15:txfldGUID>{1B3762E4-02BA-4786-8E9C-3E45EDE4DA58}</c15:txfldGUID>
                       <c15:f>計算!$Y$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -5403,7 +5403,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{624FB1B8-9FC8-45D1-8EA7-2F2320D2C401}</c15:txfldGUID>
+                      <c15:txfldGUID>{D5A73A8E-30B3-4D7E-8BAE-D2CD1972D5C3}</c15:txfldGUID>
                       <c15:f>計算!$Z$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -5443,7 +5443,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{D515E2D6-F6C7-4050-BADD-0225E3B4828E}</c15:txfldGUID>
+                      <c15:txfldGUID>{173F07F3-4841-4C98-A2BF-23F7690CFE4D}</c15:txfldGUID>
                       <c15:f>計算!$AA$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -5483,7 +5483,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{B7F03EC3-774E-481E-A72F-3A778C8EF0B6}</c15:txfldGUID>
+                      <c15:txfldGUID>{A3DE354F-B14D-4D67-BAE7-1F695E6147FF}</c15:txfldGUID>
                       <c15:f>計算!$AB$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -5523,7 +5523,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{D536B178-AEB1-46C7-BEFD-DF1AC0A5A002}</c15:txfldGUID>
+                      <c15:txfldGUID>{65A2F06C-8952-4989-B677-21D9EFB5E6D6}</c15:txfldGUID>
                       <c15:f>計算!$AC$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -5563,7 +5563,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{4E5C2A6E-16AD-459E-A251-2E993FE7C2E4}</c15:txfldGUID>
+                      <c15:txfldGUID>{74AAA2AC-29DD-4EAA-ABCF-ABD0E3BA7313}</c15:txfldGUID>
                       <c15:f>計算!$AD$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -5603,7 +5603,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{C60257E2-B30F-404F-97B4-AEC8AFAE1339}</c15:txfldGUID>
+                      <c15:txfldGUID>{A984D780-A087-4666-A2DA-15394B9A5A95}</c15:txfldGUID>
                       <c15:f>計算!$AE$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -5643,7 +5643,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{8383226F-D7EF-403B-82B7-4FF509517C39}</c15:txfldGUID>
+                      <c15:txfldGUID>{24661BD3-7B66-4E57-8157-10FE7AAD3B09}</c15:txfldGUID>
                       <c15:f>計算!$AF$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -5683,7 +5683,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{50D0469A-89D8-416A-A666-0DA0AFCA1446}</c15:txfldGUID>
+                      <c15:txfldGUID>{DE8B18C0-835B-4A0C-8D51-39F39577C312}</c15:txfldGUID>
                       <c15:f>計算!$AG$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -5723,7 +5723,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{E3A08CAA-90F5-44C3-91B5-19451A131A08}</c15:txfldGUID>
+                      <c15:txfldGUID>{3081E4CA-C528-4C8C-95C9-42CEBD7F61E6}</c15:txfldGUID>
                       <c15:f>計算!$AH$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -5914,7 +5914,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{450FC20A-8686-4048-8F10-37FCF83D56A9}</c15:txfldGUID>
+                      <c15:txfldGUID>{9A0E6ADD-E878-4C98-A54F-1662EEAE6C8E}</c15:txfldGUID>
                       <c15:f>計算!$E$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -5954,7 +5954,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{C60EF63A-F973-4868-9041-4D7B02D38CAF}</c15:txfldGUID>
+                      <c15:txfldGUID>{5A2B8BA8-DC6D-49BB-829B-C9A4FA21A11D}</c15:txfldGUID>
                       <c15:f>計算!$F$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -5994,7 +5994,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{40986F98-1D1C-4533-BE5C-F6D782B21A03}</c15:txfldGUID>
+                      <c15:txfldGUID>{DAA526DC-0499-44FD-9233-64F8E86921FD}</c15:txfldGUID>
                       <c15:f>計算!$G$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -6034,7 +6034,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{0005AD20-A9EC-4A12-8FC2-D25304D9DAE4}</c15:txfldGUID>
+                      <c15:txfldGUID>{81AB48B2-2880-4499-80D6-E8B2DB729CE2}</c15:txfldGUID>
                       <c15:f>計算!$H$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -6074,7 +6074,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{136A2062-1F93-40A5-B4C4-97817C18D238}</c15:txfldGUID>
+                      <c15:txfldGUID>{BA18AA74-2BE6-4157-BBD5-CE2F4E1C6960}</c15:txfldGUID>
                       <c15:f>計算!$I$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -6114,7 +6114,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{4478D642-52E3-4EDB-A30F-4FECB0781978}</c15:txfldGUID>
+                      <c15:txfldGUID>{CAD4899F-3D00-48C7-BEC8-790244005318}</c15:txfldGUID>
                       <c15:f>計算!$J$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -6154,7 +6154,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{A3289BAC-D000-47D5-B939-37AEC01C72BA}</c15:txfldGUID>
+                      <c15:txfldGUID>{5171E08C-C390-4D7C-B6B5-7C9D7D36ABEF}</c15:txfldGUID>
                       <c15:f>計算!$K$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -6194,7 +6194,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{120F0F75-FF01-4323-82D7-FAF86927B335}</c15:txfldGUID>
+                      <c15:txfldGUID>{02230A05-F706-4009-8E87-21DE0BACB0D0}</c15:txfldGUID>
                       <c15:f>計算!$L$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -6234,7 +6234,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{A6FC9339-DB11-44C8-9F33-1AAF46709A64}</c15:txfldGUID>
+                      <c15:txfldGUID>{F1A6A173-CF8A-469C-9A5A-621227445F21}</c15:txfldGUID>
                       <c15:f>計算!$M$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -6274,7 +6274,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{2F7F426F-68D3-44DF-B0E0-4439DE329F76}</c15:txfldGUID>
+                      <c15:txfldGUID>{1CB96008-17EA-49C9-8B03-BD645FB5B9BE}</c15:txfldGUID>
                       <c15:f>計算!$N$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -6314,7 +6314,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{A17AA9AE-89C2-41DA-80D5-CE4E0C301293}</c15:txfldGUID>
+                      <c15:txfldGUID>{944C1231-FC03-441D-89B7-313A5151F4AB}</c15:txfldGUID>
                       <c15:f>計算!$O$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -6354,7 +6354,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{B4671E76-3D91-4274-AF7B-32ED4C6935E9}</c15:txfldGUID>
+                      <c15:txfldGUID>{EB35B030-F37E-4D85-A9CA-AEBFE8DA4179}</c15:txfldGUID>
                       <c15:f>計算!$P$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -6394,7 +6394,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{8551018F-59BC-46FC-B34C-020C7BCF94C8}</c15:txfldGUID>
+                      <c15:txfldGUID>{3BDA8407-D335-4B49-B299-CCEFB906EC93}</c15:txfldGUID>
                       <c15:f>計算!$Q$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -6434,7 +6434,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{AD56AD0C-C32D-45DA-8E8A-104923A73351}</c15:txfldGUID>
+                      <c15:txfldGUID>{3BCC0DC6-96DD-4EAD-8BAF-3E6CC1DADC3D}</c15:txfldGUID>
                       <c15:f>計算!$R$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -6474,7 +6474,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{F12878A7-A430-40E3-8519-8A306D255973}</c15:txfldGUID>
+                      <c15:txfldGUID>{6FA2EBF0-B95A-4B10-BB69-DB90A491090F}</c15:txfldGUID>
                       <c15:f>計算!$S$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -6514,7 +6514,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{6D7ABEBC-0F4B-4CEC-B87A-BF7AE5384A69}</c15:txfldGUID>
+                      <c15:txfldGUID>{ABF79AAE-8E3D-4505-9B6B-5E6943A5A973}</c15:txfldGUID>
                       <c15:f>計算!$T$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -6554,7 +6554,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{A2A183A6-38B2-4A1E-A6E0-3C74C04AFA7D}</c15:txfldGUID>
+                      <c15:txfldGUID>{5C9DDB67-D203-4D94-B702-D1A094EE259A}</c15:txfldGUID>
                       <c15:f>計算!$U$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -6594,7 +6594,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{AA463BB3-E07E-4CF1-9751-E61FF19D1DD2}</c15:txfldGUID>
+                      <c15:txfldGUID>{0733A5D5-6E59-4526-B394-DDE861C03E64}</c15:txfldGUID>
                       <c15:f>計算!$V$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -6634,7 +6634,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{67CF4220-016C-4166-B634-88064746216E}</c15:txfldGUID>
+                      <c15:txfldGUID>{F0EED5E6-12DE-4C12-9E6A-ABFF989980D9}</c15:txfldGUID>
                       <c15:f>計算!$W$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -6674,7 +6674,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{4DE9AE33-2AD7-4192-86A7-A94B18E9ED86}</c15:txfldGUID>
+                      <c15:txfldGUID>{96603F00-E28D-413C-A45A-74C160461ED2}</c15:txfldGUID>
                       <c15:f>計算!$X$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -6714,7 +6714,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{48B17A37-653A-45A7-86EA-3CD9A2D72C42}</c15:txfldGUID>
+                      <c15:txfldGUID>{2B3D8CBC-12F6-4420-8368-6C1332EA2173}</c15:txfldGUID>
                       <c15:f>計算!$Y$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -6754,7 +6754,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{EF9CC33D-FFD2-43CA-BA70-FBD1966ACCED}</c15:txfldGUID>
+                      <c15:txfldGUID>{3F78773E-339D-4B7E-BAA8-B291D5082DC5}</c15:txfldGUID>
                       <c15:f>計算!$Z$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -6794,7 +6794,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{37520632-9430-461C-ACDF-2F6859A5EE2B}</c15:txfldGUID>
+                      <c15:txfldGUID>{12C0483C-19E6-4517-B747-4D2E59FADBE4}</c15:txfldGUID>
                       <c15:f>計算!$AA$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -6834,7 +6834,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{8E569C22-F6B4-4996-833C-BB927DF649D5}</c15:txfldGUID>
+                      <c15:txfldGUID>{C58C8D67-8E1C-4813-9100-4DFF5ECD551C}</c15:txfldGUID>
                       <c15:f>計算!$AB$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -6874,7 +6874,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{E067FC54-E6B7-415E-8D7E-9EEF2D394936}</c15:txfldGUID>
+                      <c15:txfldGUID>{6151CE85-ACCD-4AD4-BEB6-2E9D9CE5190C}</c15:txfldGUID>
                       <c15:f>計算!$AC$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -6914,7 +6914,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{7F832798-B4DF-42AE-8F10-5B7C4F821507}</c15:txfldGUID>
+                      <c15:txfldGUID>{9835D943-0B22-4605-868C-CA6F769C63FC}</c15:txfldGUID>
                       <c15:f>計算!$AD$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -6954,7 +6954,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{91BA11A9-1832-4782-B368-6001360DE81B}</c15:txfldGUID>
+                      <c15:txfldGUID>{9355BB14-8081-47DC-B41A-CCE189E583BF}</c15:txfldGUID>
                       <c15:f>計算!$AE$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -6994,7 +6994,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{4A7B1FA5-52C6-4F3F-8E4C-1B7C63AA5050}</c15:txfldGUID>
+                      <c15:txfldGUID>{F8733F8E-76D3-4FEE-B076-E70040A0AE3A}</c15:txfldGUID>
                       <c15:f>計算!$AF$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -7034,7 +7034,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{8F46C52B-82B5-439F-BE34-D74B25FBAB91}</c15:txfldGUID>
+                      <c15:txfldGUID>{AA8A8D6E-04EF-42CC-86D6-86CBE62EFE0F}</c15:txfldGUID>
                       <c15:f>計算!$AG$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -7074,7 +7074,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{0E1F5352-FBE2-42F0-97EE-37920C4A7CDA}</c15:txfldGUID>
+                      <c15:txfldGUID>{E961F628-F79C-45D0-856C-582DC99DE333}</c15:txfldGUID>
                       <c15:f>計算!$AH$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -7483,11 +7483,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="180543488"/>
-        <c:axId val="180543880"/>
+        <c:axId val="172872488"/>
+        <c:axId val="172873272"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="180543488"/>
+        <c:axId val="172872488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7510,14 +7510,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="180543880"/>
+        <c:crossAx val="172873272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="180543880"/>
+        <c:axId val="172873272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="13.5"/>
@@ -7529,7 +7529,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="180543488"/>
+        <c:crossAx val="172872488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -7911,7 +7911,7 @@
   <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -8232,7 +8232,7 @@
       </c>
       <c r="D3" s="18">
         <f ca="1">TODAY()</f>
-        <v>42634</v>
+        <v>42642</v>
       </c>
       <c r="E3" s="18"/>
     </row>
